--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:56:23+00:00</t>
+    <t>2025-10-02T14:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-organization.xlsx
+++ b/main/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T14:42:34+00:00</t>
+    <t>2025-10-02T15:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
